--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>复活等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域普通能量点最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果的掉落半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具刷新上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,12 +113,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,6 +486,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,15 +37,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每秒消耗体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域普通能量点最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果的掉落半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具刷新上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碰撞范围半径R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒消耗体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活等待时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,7 +458,7 @@
         <v>200000</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -457,7 +469,7 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -468,7 +480,40 @@
         <v>30000</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100000</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,7 +57,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞范围半径R</t>
+    <t>基础碰撞范围半径R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域内能量点上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,12 +121,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,6 +527,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>150000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>15000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,11 +61,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加速倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域内能量点上限</t>
+    <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI逃跑周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速持续最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速持续最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -543,10 +571,87 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15000</v>
+        <v>1000000</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>80000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>100000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>110000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>30000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>80000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1000000</v>
+        <v>3600000</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>AI加速持续最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI击杀周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,6 +656,17 @@
       </c>
       <c r="C19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,26 @@
   </si>
   <si>
     <t>AI击杀周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能持续最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能持续最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI追逐持续时间（正常走路情况追踪目标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI冲刺速度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速速度比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -667,6 +687,61 @@
       </c>
       <c r="C20" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>30000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>30000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>15000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>20000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1000000</v>
+        <v>3600000</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>110000</v>
+        <v>300000</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>AI加速速度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI最小数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,6 +750,28 @@
       </c>
       <c r="C25" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>200000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>300000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1000000</v>
+        <v>3600000</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -768,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI追逐持续时间（正常走路情况追踪目标）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI冲刺速度比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,26 @@
   </si>
   <si>
     <t>AI最小数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI追逐目标时间间隔（正常走路情况追踪目标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追寻可击杀职业的等级差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI检测可击杀对象是否超出范围时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI随机切换方向的时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI随机寻到半径内的道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,7 +743,7 @@
         <v>40000</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -738,7 +754,7 @@
         <v>15000</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -749,7 +765,7 @@
         <v>30000</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -760,7 +776,7 @@
         <v>100000</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -771,7 +787,51 @@
         <v>200000</v>
       </c>
       <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -729,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -740,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -806,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>AI随机寻到半径内的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角体力恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞开持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞开速度倍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,6 +844,39 @@
       </c>
       <c r="C31" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>撞开速度倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI死亡刷新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,6 +881,17 @@
       </c>
       <c r="C34" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>40000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="常量表" sheetId="1" r:id="rId1"/>
@@ -16,148 +16,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>移动基本速度</t>
+  </si>
+  <si>
+    <t>体力最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒消耗体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域普通能量点最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果的掉落半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具刷新上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础碰撞范围半径R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI逃跑周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速持续最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速持续最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI击杀周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能持续最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技能持续最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI冲刺速度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI加速速度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI最小数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI追逐目标时间间隔（正常走路情况追踪目标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追寻可击杀职业的等级差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI检测可击杀对象是否超出范围时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI随机切换方向的时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI随机寻到半径内的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角体力恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞开持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞开速度倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI死亡刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活积分参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活积分随机参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活积分随机参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活积分参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动基本速度</t>
-  </si>
-  <si>
-    <t>体力最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒消耗体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域普通能量点最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果的掉落半径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具刷新上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础碰撞范围半径R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃跑距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追逐距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI加速时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI技能时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI逃跑周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI加速持续最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI加速持续最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI击杀周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI技能持续最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI技能持续最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI冲刺速度比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI加速速度比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI最小数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI追逐目标时间间隔（正常走路情况追踪目标）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追寻可击杀职业的等级差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI检测可击杀对象是否超出范围时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI随机切换方向的时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI随机寻到半径内的道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角体力恢复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞开持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞开速度倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI死亡刷新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,28 +523,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -539,7 +555,7 @@
         <v>500000</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -550,7 +566,7 @@
         <v>1000000</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -561,7 +577,7 @@
         <v>200000</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -572,7 +588,7 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -580,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -594,7 +610,7 @@
         <v>100000</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -605,7 +621,7 @@
         <v>30000</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -616,7 +632,7 @@
         <v>50000</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -627,7 +643,7 @@
         <v>1000000</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -638,7 +654,7 @@
         <v>3600000</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -649,7 +665,7 @@
         <v>80000</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -660,7 +676,7 @@
         <v>80000</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -671,7 +687,7 @@
         <v>100000</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -682,7 +698,7 @@
         <v>150000</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -693,7 +709,7 @@
         <v>110000</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -704,7 +720,7 @@
         <v>30000</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -715,7 +731,7 @@
         <v>80000</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -726,7 +742,7 @@
         <v>50000</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -737,7 +753,7 @@
         <v>25000</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -748,7 +764,7 @@
         <v>25000</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -759,7 +775,7 @@
         <v>50000</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -770,7 +786,7 @@
         <v>15000</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -781,7 +797,7 @@
         <v>30000</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -792,7 +808,7 @@
         <v>100000</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -803,7 +819,7 @@
         <v>200000</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -814,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -825,7 +841,7 @@
         <v>60000</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -836,7 +852,7 @@
         <v>50000</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -847,7 +863,7 @@
         <v>50000</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -858,7 +874,7 @@
         <v>50000</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -869,7 +885,7 @@
         <v>5000</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -880,7 +896,7 @@
         <v>20000</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -891,6 +907,50 @@
         <v>40000</v>
       </c>
       <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>30000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>500000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
+      </c>
+      <c r="C39" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>移动基本速度</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡道具随机范围参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡道具随机范围参数2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,6 +960,28 @@
       </c>
       <c r="C39" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>7500</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -967,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -978,7 +978,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>450000</v>
+        <v>600000</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -835,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="常量表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>移动基本速度</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>死亡道具随机范围参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局时间单位秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,6 +986,17 @@
       </c>
       <c r="C41" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/C常量表.xlsx
+++ b/Excel/excel/xls/C常量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>移动基本速度</t>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>开局时间单位秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,6 +1001,17 @@
       </c>
       <c r="C42" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
